--- a/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3107483992714686</v>
+        <v>0.3128198156997978</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2935916924761395</v>
+        <v>0.289351337922345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2615156578507868</v>
+        <v>0.266137336932314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2264011406395303</v>
+        <v>0.2278243880147018</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1133565868621119</v>
+        <v>0.1139563839802355</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1289760978388887</v>
+        <v>0.1290267582268351</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08934806781761893</v>
+        <v>0.08872338761299961</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2062902599657995</v>
+        <v>0.2062001575845411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.203231324101915</v>
+        <v>0.2023725505706332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1876240654266391</v>
+        <v>0.1881524600214491</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1545483277718042</v>
+        <v>0.1534041843909758</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3724591018112164</v>
+        <v>0.3731773758130721</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3532135197730304</v>
+        <v>0.3517408780207163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3321408720571735</v>
+        <v>0.3361827245501661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2992020250135302</v>
+        <v>0.3023837314077495</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1523254381497661</v>
+        <v>0.1507199178578884</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1662344200641096</v>
+        <v>0.1678269053265371</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1230152215840337</v>
+        <v>0.122926201028029</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2405252093374369</v>
+        <v>0.2405633056588318</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2394400759298828</v>
+        <v>0.2385944587766652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2250985429529621</v>
+        <v>0.2258309261071751</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1914550473779357</v>
+        <v>0.1891977056037652</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3327781364185017</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2314626744134533</v>
+        <v>0.2314626744134534</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3960063917827261</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4303147267117501</v>
+        <v>0.4322826198757035</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3791205388320433</v>
+        <v>0.3777819264391846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3655455343934848</v>
+        <v>0.3659796224255033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2661855066346876</v>
+        <v>0.2655368546815952</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3100532247040994</v>
+        <v>0.3087034664627897</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.332887783643754</v>
+        <v>0.3338403657142604</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3122359352221752</v>
+        <v>0.3089046091218206</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2170168078341053</v>
+        <v>0.2136024739370909</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3799665977807742</v>
+        <v>0.3796834825280002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3621454366726864</v>
+        <v>0.3650588828257513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3454428147054853</v>
+        <v>0.3468016353187365</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2456442244029363</v>
+        <v>0.2463069314983239</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4812466287408964</v>
+        <v>0.4791691392215875</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4256283880239901</v>
+        <v>0.4238214302880028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4083961473839411</v>
+        <v>0.4075406989831592</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3082614328824103</v>
+        <v>0.3088050506466344</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3569547516773981</v>
+        <v>0.359856249103855</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3793151977159939</v>
+        <v>0.3804376112379663</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3552492315869193</v>
+        <v>0.3535328683336809</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2495779639927022</v>
+        <v>0.2477303117435954</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4122484033110549</v>
+        <v>0.4124011777605516</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3958984564298201</v>
+        <v>0.3962306165916531</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3757644514728861</v>
+        <v>0.3777063341702579</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2739676212786727</v>
+        <v>0.2741195638710469</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2969352602115132</v>
+        <v>0.2934764122285544</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2773696736592237</v>
+        <v>0.2770280534576772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2102116778429369</v>
+        <v>0.210893594030173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.129656890609422</v>
+        <v>0.1265204650483668</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2323207109764192</v>
+        <v>0.2306482242255664</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2510188405023075</v>
+        <v>0.2549586203724928</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.182889949200152</v>
+        <v>0.180682317549394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1373673774746687</v>
+        <v>0.1354616810443782</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2766640403811587</v>
+        <v>0.2747273720618181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2796598736964714</v>
+        <v>0.2800710437072611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2080302704648873</v>
+        <v>0.2113915681342336</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1386657203992699</v>
+        <v>0.1394642993007555</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3815825371416018</v>
+        <v>0.3752509583095388</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3717764691542547</v>
+        <v>0.3739743966371036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2873948282670013</v>
+        <v>0.2898567392513663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1835687570350687</v>
+        <v>0.1850846214652055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3142225912415343</v>
+        <v>0.3079688138206707</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3425113976039176</v>
+        <v>0.3422173976633063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2580811543127944</v>
+        <v>0.2540906811147893</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1860470053000232</v>
+        <v>0.1850647454746181</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3338597781102283</v>
+        <v>0.3332180824207977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3434750047557721</v>
+        <v>0.3440221571370504</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2605353313237642</v>
+        <v>0.2593745296721305</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1771848772584022</v>
+        <v>0.178049276710351</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2601966088962014</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1895115930667039</v>
+        <v>0.189511593066704</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3208357136936954</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3513593239111516</v>
+        <v>0.3513007713654758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3305471317985527</v>
+        <v>0.3292109810369103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.238483593468486</v>
+        <v>0.2402840662821163</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2543634037025392</v>
+        <v>0.2548376109734255</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2458580491156984</v>
+        <v>0.2463268590610563</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1782559355100237</v>
+        <v>0.1779204204718381</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3074039155690931</v>
+        <v>0.3058950600091441</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2915664501049707</v>
+        <v>0.2911864749765957</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2126455908651232</v>
+        <v>0.2119898175037659</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3851770152839336</v>
+        <v>0.3846267272636121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3633017312340767</v>
+        <v>0.3627081525995531</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2722561659860424</v>
+        <v>0.2732809913135259</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2848374741034976</v>
+        <v>0.2870351554173306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2748550545234285</v>
+        <v>0.2740929514469813</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2008617363751275</v>
+        <v>0.2008121266595436</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.329222227825196</v>
+        <v>0.3302587042201949</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3137122187532719</v>
+        <v>0.3135249312692941</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.233047545234044</v>
+        <v>0.2321781178195084</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>320282</v>
+        <v>322417</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>286147</v>
+        <v>282014</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>197047</v>
+        <v>200530</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>130980</v>
+        <v>131803</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>149077</v>
+        <v>149866</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>172544</v>
+        <v>172612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>73448</v>
+        <v>72934</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>483914</v>
+        <v>483703</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>469960</v>
+        <v>467974</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>327544</v>
+        <v>328467</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>216455</v>
+        <v>214853</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>383887</v>
+        <v>384627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>344257</v>
+        <v>342822</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>250262</v>
+        <v>253308</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>173097</v>
+        <v>174938</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>200325</v>
+        <v>198214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>222388</v>
+        <v>224518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>101123</v>
+        <v>101050</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>564222</v>
+        <v>564312</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>553691</v>
+        <v>551735</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>392965</v>
+        <v>394244</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>268146</v>
+        <v>264984</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>728701</v>
+        <v>732033</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>744186</v>
+        <v>741559</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>759013</v>
+        <v>759915</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>593153</v>
+        <v>591707</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>492263</v>
+        <v>490120</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>584491</v>
+        <v>586164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>620158</v>
+        <v>613541</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>470923</v>
+        <v>463514</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1246703</v>
+        <v>1245774</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1346728</v>
+        <v>1357562</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1403385</v>
+        <v>1408905</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1080424</v>
+        <v>1083338</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>814949</v>
+        <v>811431</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>835478</v>
+        <v>831931</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>847988</v>
+        <v>846211</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>686912</v>
+        <v>688124</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>566727</v>
+        <v>571334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>666010</v>
+        <v>667980</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>705590</v>
+        <v>702181</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>541580</v>
+        <v>537571</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1352622</v>
+        <v>1353124</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1472247</v>
+        <v>1473482</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1526569</v>
+        <v>1534458</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1204999</v>
+        <v>1205667</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>163732</v>
+        <v>161825</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133465</v>
+        <v>133301</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114736</v>
+        <v>115109</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>92262</v>
+        <v>90030</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>110680</v>
+        <v>109884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>115125</v>
+        <v>116932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>100263</v>
+        <v>99052</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>100610</v>
+        <v>99214</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>284361</v>
+        <v>282370</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>262828</v>
+        <v>263214</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>227591</v>
+        <v>231268</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>200233</v>
+        <v>201387</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>210408</v>
+        <v>206916</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178892</v>
+        <v>179949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>156864</v>
+        <v>158208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>130625</v>
+        <v>131704</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>149699</v>
+        <v>146720</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>157086</v>
+        <v>156952</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>141483</v>
+        <v>139296</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>136263</v>
+        <v>135544</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>343148</v>
+        <v>342488</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>322802</v>
+        <v>323316</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>285033</v>
+        <v>283763</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>255855</v>
+        <v>257103</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1201210</v>
+        <v>1201010</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1115822</v>
+        <v>1111311</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>839095</v>
+        <v>845430</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>903562</v>
+        <v>905246</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>867058</v>
+        <v>868712</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>663903</v>
+        <v>662653</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2142913</v>
+        <v>2132394</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2012492</v>
+        <v>2009869</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1540170</v>
+        <v>1535420</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1316825</v>
+        <v>1314943</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1226391</v>
+        <v>1224387</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>957922</v>
+        <v>961528</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1011813</v>
+        <v>1019620</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>969321</v>
+        <v>966633</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>748096</v>
+        <v>747912</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2295008</v>
+        <v>2302233</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2165349</v>
+        <v>2164057</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1687939</v>
+        <v>1681642</v>
       </c>
     </row>
     <row r="20">
